--- a/Benchmark-Models/Chen_MSB2009/Model/model1_data4.xlsx
+++ b/Benchmark-Models/Chen_MSB2009/Model/model1_data4.xlsx
@@ -19,13 +19,13 @@
     <t>dc2/dt</t>
   </si>
   <si>
-    <t>c516*kd120 - c2*k6 + c517*kd120 - c2*heaviside(t - 1800) + 0.0033*c3*heaviside(t - 1800) + 0.00005*c6*heaviside(t - 1800) + 0.000000018704*c105*c531*heaviside(t - 1800) - c2*c142*k120b - c2*c144*k120b</t>
+    <t>c516*kd120 - c2*k6 + c517*kd120 + c6*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c2*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c3*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c2*c142*k120b - c2*c144*k120b + c105*c531*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc3/dt</t>
   </si>
   <si>
-    <t>2*c4*kd2 + c145*kd2b + c146*kd2b + c147*kd2b + c500*kd2 + c527*kd2 + c550*kd2 + c504*kd2b + c505*kd2b + c507*kd2b - 2*c3^2*k2 - 0.0033*c3*heaviside(t - 1800) - c3*c499*k2 - c3*c526*k2 - c3*c529*k2 - c3*c140*k2b - c3*c141*k2b - c3*c143*k2b - c3*c502*k2b - c3*c503*k2b - c3*c506*k2b</t>
+    <t>2*c4*kd2 + c145*kd2b + c146*kd2b + c147*kd2b + c500*kd2 + c527*kd2 + c550*kd2 + c504*kd2b + c505*kd2b + c507*kd2b - 2*c3^2*k2 - c3*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c3*c499*k2 - c3*c526*k2 - c3*c529*k2 - c3*c140*k2b - c3*c141*k2b - c3*c143*k2b - c3*c502*k2b - c3*c503*k2b - c3*c506*k2b</t>
   </si>
   <si>
     <t>dc288/dt</t>
@@ -55,19 +55,19 @@
     <t>dc286/dt</t>
   </si>
   <si>
-    <t>0.0033*c499*heaviside(t - 1800) - c286*kd97</t>
+    <t>c499*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c286*kd97</t>
   </si>
   <si>
     <t>dc499/dt</t>
   </si>
   <si>
-    <t>c500*kd2 + 2*c501*kd2 + c551*kd2 + c554*kd2 + c492*kd2b + c493*kd2b + c494*kd2b - 2*c499^2*k2 - 0.0033*c499*heaviside(t - 1800) - c3*c499*k2 - c499*c526*k2 - c499*c529*k2 - c140*c499*k2b - c141*c499*k2b - c143*c499*k2b</t>
+    <t>c500*kd2 + 2*c501*kd2 + c551*kd2 + c554*kd2 + c492*kd2b + c493*kd2b + c494*kd2b - 2*c499^2*k2 - c499*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c3*c499*k2 - c499*c526*k2 - c499*c529*k2 - c140*c499*k2b - c141*c499*k2b - c143*c499*k2b</t>
   </si>
   <si>
     <t>dc500/dt</t>
   </si>
   <si>
-    <t>c115*heaviside(t - 1800) - c500*kd2 - 0.000000018704*c105*c500*heaviside(t - 1800) + c3*c499*k2</t>
+    <t>c115*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c500*kd2 + c3*c499*k2 - c105*c500*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc501/dt</t>
@@ -79,7 +79,7 @@
     <t>dc4/dt</t>
   </si>
   <si>
-    <t>c3^2*k2 - c4*kd2 + c116*heaviside(t - 1800) - 0.000000018704*c4*c105*heaviside(t - 1800)</t>
+    <t>c3^2*k2 - c4*kd2 + c116*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c4*c105*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc10/dt</t>
@@ -91,7 +91,7 @@
     <t>dc11/dt</t>
   </si>
   <si>
-    <t>c86*kd60 - c11*kd2 - c11*k60 + c415*kd95 + c10^2*k2 + c126*heaviside(t - 1800) - 0.000000018704*c11*c105*heaviside(t - 1800) - c11*c280*k95</t>
+    <t>c86*kd60 - c11*kd2 - c11*k60 + c415*kd95 + c10^2*k2 + c126*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c11*c280*k95 - c11*c105*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc141/dt</t>
@@ -103,31 +103,31 @@
     <t>dc145/dt</t>
   </si>
   <si>
-    <t>c122*heaviside(t - 1800) - c145*kd2b - 0.000000018704*c105*c145*heaviside(t - 1800) + c3*c141*k2b</t>
+    <t>c122*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c145*kd2b + c3*c141*k2b - c105*c145*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc140/dt</t>
   </si>
   <si>
-    <t>c146*kd2b - c140*k6b + c154*kd6b + c142*kd119 + c288*kd103 + c493*kd2b + c506*kd100 + c510*kd103 - 0.001*c140*heaviside(t - 1800) - c140*c141*k103 - c140*c502*k103 - c3*c140*k2b - c140*c499*k2b</t>
+    <t>c146*kd2b - c140*k6b + c154*kd6b + c142*kd119 + c288*kd103 + c493*kd2b + c506*kd100 + c510*kd103 - 0.0000000001*c140*(10000000*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(10000000*heaviside(t - 1800) - 10000000*heaviside(1.0*t - 1799.99))) - c140*c141*k103 - c140*c502*k103 - c3*c140*k2b - c140*c499*k2b</t>
   </si>
   <si>
     <t>dc146/dt</t>
   </si>
   <si>
-    <t>c127*heaviside(t - 1800) - c146*kd2b - 0.000000018704*c105*c146*heaviside(t - 1800) + c3*c140*k2b</t>
+    <t>c127*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c146*kd2b + c3*c140*k2b - c105*c146*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc143/dt</t>
   </si>
   <si>
-    <t>c117*kd103 - c143*k6b + c147*kd2b + c156*kd6b + c144*kd119 + c494*kd2b + c503*kd99 + c511*kd103 - 0.001*c143*heaviside(t - 1800) - c141*c143*k103 - c143*c502*k103 - c3*c143*k2b - c143*c499*k2b</t>
+    <t>c117*kd103 - c143*k6b + c147*kd2b + c156*kd6b + c144*kd119 + c494*kd2b + c503*kd99 + c511*kd103 - 0.0000000001*c143*(10000000*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(10000000*heaviside(t - 1800) - 10000000*heaviside(1.0*t - 1799.99))) - c141*c143*k103 - c143*c502*k103 - c3*c143*k2b - c143*c499*k2b</t>
   </si>
   <si>
     <t>dc147/dt</t>
   </si>
   <si>
-    <t>c128*heaviside(t - 1800) - c147*kd2b - 0.000000018704*c105*c147*heaviside(t - 1800) + c3*c143*k2b</t>
+    <t>c128*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c147*kd2b + c3*c143*k2b - c105*c147*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc155/dt</t>
@@ -139,7 +139,7 @@
     <t>dc159/dt</t>
   </si>
   <si>
-    <t>c86*kd60b - c159*k62b - c159*kd2b + c416*kd95 + c123*heaviside(t - 1800) - 0.000000018704*c105*c159*heaviside(t - 1800) - c159*c280*k95 + c10*c155*k2b</t>
+    <t>c86*kd60b - c159*k62b - c159*kd2b + c416*kd95 + c123*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c159*c280*k95 + c10*c155*k2b - c105*c159*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc154/dt</t>
@@ -151,7 +151,7 @@
     <t>dc160/dt</t>
   </si>
   <si>
-    <t>c86*kd60b - c160*k62b - c160*kd2b + c281*kd95 + c124*heaviside(t - 1800) - 0.000000018704*c105*c160*heaviside(t - 1800) - c160*c280*k95 + c10*c154*k2b</t>
+    <t>c86*kd60b - c160*k62b - c160*kd2b + c281*kd95 + c124*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c160*c280*k95 + c10*c154*k2b - c105*c160*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc156/dt</t>
@@ -163,7 +163,7 @@
     <t>dc161/dt</t>
   </si>
   <si>
-    <t>c86*kd60b - c161*k62b - c161*kd2b + c282*kd95 + c125*heaviside(t - 1800) - 0.000000018704*c105*c161*heaviside(t - 1800) - c161*c280*k95 + c10*c156*k2b</t>
+    <t>c86*kd60b - c161*k62b - c161*kd2b + c282*kd95 + c125*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c161*c280*k95 + c10*c156*k2b - c105*c161*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc492/dt</t>
@@ -223,229 +223,229 @@
     <t>dc105/dt</t>
   </si>
   <si>
-    <t>c116*kd123 + c122*kd123 + c123*kd123 + c124*kd123 + c125*kd123 + c126*kd123 + c127*kd123 + c128*kd123 + c129*kd123 + c130*kd123 + c131*kd123 + c132*kd123 + c133*kd123 + c134*kd123 + c135*kd123 + c136*kd123 + c137*kd123 + c138*kd123 + c139*kd123 + c168*kd123 + c169*kd123 + c170*kd123 + c115*kd123h + c121*kd123h + c555*kd123 + c557*kd123 + c556*kd123h + c558*kd123h + c2*heaviside(t - 1800) + c115*heaviside(t - 1800) + c116*heaviside(t - 1800) + c121*heaviside(t - 1800) + c122*heaviside(t - 1800) + c123*heaviside(t - 1800) + c124*heaviside(t - 1800) + c125*heaviside(t - 1800) + c126*heaviside(t - 1800) + c127*heaviside(t - 1800) + c128*heaviside(t - 1800) + c129*heaviside(t - 1800) + c130*heaviside(t - 1800) + c131*heaviside(t - 1800) + c132*heaviside(t - 1800) + c133*heaviside(t - 1800) + c134*heaviside(t - 1800) + c135*heaviside(t - 1800) + c136*heaviside(t - 1800) + c137*heaviside(t - 1800) + c138*heaviside(t - 1800) + c139*heaviside(t - 1800) + c168*heaviside(t - 1800) + c169*heaviside(t - 1800) + c170*heaviside(t - 1800) + c524*heaviside(t - 1800) + c555*heaviside(t - 1800) + c556*heaviside(t - 1800) + c557*heaviside(t - 1800) + c558*heaviside(t - 1800) - 0.000000018704*c4*c105*heaviside(t - 1800) - 0.000000018704*c11*c105*heaviside(t - 1800) - 0.000000018704*c105*c145*heaviside(t - 1800) - 0.000000018704*c105*c146*heaviside(t - 1800) - 0.000000018704*c105*c147*heaviside(t - 1800) - 0.000000018704*c105*c159*heaviside(t - 1800) - 0.000000018704*c105*c160*heaviside(t - 1800) - 0.000000018704*c105*c161*heaviside(t - 1800) - 0.000000018704*c105*c284*heaviside(t - 1800) - 0.000000018704*c105*c345*heaviside(t - 1800) - 0.000000018704*c105*c355*heaviside(t - 1800) - 0.000000018704*c105*c421*heaviside(t - 1800) - 0.000000018704*c105*c422*heaviside(t - 1800) - 0.000000018704*c105*c427*heaviside(t - 1800) - 0.000000018704*c105*c428*heaviside(t - 1800) - 0.000000018704*c105*c429*heaviside(t - 1800) - 0.000000018704*c105*c436*heaviside(t - 1800) - 0.000000018704*c105*c439*heaviside(t - 1800) - 0.000000018704*c105*c442*heaviside(t - 1800) - 0.000000018704*c105*c483*heaviside(t - 1800) - 0.000000018704*c105*c500*heaviside(t - 1800) - 0.000000018704*c105*c516*heaviside(t - 1800) - 0.000000018704*c105*c517*heaviside(t - 1800) - 0.000000018704*c105*c527*heaviside(t - 1800) - 0.000000018704*c105*c531*heaviside(t - 1800) - 0.000000018704*c105*c532*heaviside(t - 1800) - 0.000000018704*c105*c550*heaviside(t - 1800) - 0.000000018704*c105*c551*heaviside(t - 1800) - 0.000000018704*c105*c552*heaviside(t - 1800) - 0.000000018704*c105*c553*heaviside(t - 1800) - 3*c5*c105*k123 - c8*c105*k123 - 4*c5*c105*k123h - c105*c148*k123 - 2*c105*c149*k123 - 2*c105*c150*k123 - c105*c162*k123 - c105*c163*k123 - c105*c164*k123 - c105*c289*k123 - c105*c335*k123 - c105*c336*k123 - c105*c337*k123 - c105*c338*k123 - c105*c445*k123 - c105*c446*k123 - c105*c447*k123 - c105*c454*k123 - c105*c457*k123 - c105*c460*k123 - c105*c486*k123</t>
+    <t>c116*kd123 + c122*kd123 + c123*kd123 + c124*kd123 + c125*kd123 + c126*kd123 + c127*kd123 + c128*kd123 + c129*kd123 + c130*kd123 + c131*kd123 + c132*kd123 + c133*kd123 + c134*kd123 + c135*kd123 + c136*kd123 + c137*kd123 + c138*kd123 + c139*kd123 + c168*kd123 + c169*kd123 + c170*kd123 + c115*kd123h + c121*kd123h + c555*kd123 + c557*kd123 + c556*kd123h + c558*kd123h + c2*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c115*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c116*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c121*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c122*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c123*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c124*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c125*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c126*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c127*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c128*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c129*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c130*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c131*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c132*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c133*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c134*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c135*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c136*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c137*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c138*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c139*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c168*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c169*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c170*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c524*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c555*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c556*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c557*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c558*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - 3*c5*c105*k123 - c8*c105*k123 - 4*c5*c105*k123h - c105*c148*k123 - 2*c105*c149*k123 - 2*c105*c150*k123 - c105*c162*k123 - c105*c163*k123 - c105*c164*k123 - c105*c289*k123 - c105*c335*k123 - c105*c336*k123 - c105*c337*k123 - c105*c338*k123 - c105*c445*k123 - c105*c446*k123 - c105*c447*k123 - c105*c454*k123 - c105*c457*k123 - c105*c460*k123 - c105*c486*k123 - c4*c105*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c11*c105*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c145*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c146*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c147*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c159*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c160*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c161*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c284*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c345*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c355*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c421*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c422*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c427*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c428*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c429*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c436*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c439*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c442*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c483*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c500*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c516*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c517*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c527*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c531*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c532*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c550*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c551*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c552*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99))) - c105*c553*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc123/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c159*heaviside(t - 1800) - c123*heaviside(t - 1800) - c123*kd123 + c105*c162*k123</t>
+    <t>c105*c162*k123 - c123*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c123*kd123 + c105*c159*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc124/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c160*heaviside(t - 1800) - c124*heaviside(t - 1800) - c124*kd123 + c105*c163*k123</t>
+    <t>c105*c163*k123 - c124*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c124*kd123 + c105*c160*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc125/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c161*heaviside(t - 1800) - c125*heaviside(t - 1800) - c125*kd123 + c105*c164*k123</t>
+    <t>c105*c164*k123 - c125*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c125*kd123 + c105*c161*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc126/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c11*c105*heaviside(t - 1800) - c126*heaviside(t - 1800) - c126*kd123 + c8*c105*k123</t>
+    <t>c8*c105*k123 - c126*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c126*kd123 + c11*c105*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc116/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c4*c105*heaviside(t - 1800) - c116*heaviside(t - 1800) - c116*kd123 + c5*c105*k123</t>
+    <t>c5*c105*k123 - c116*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c116*kd123 + c4*c105*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc122/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c145*heaviside(t - 1800) - c122*heaviside(t - 1800) - c122*kd123 + c105*c148*k123</t>
+    <t>c105*c148*k123 - c122*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c122*kd123 + c105*c145*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc127/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c146*heaviside(t - 1800) - c127*heaviside(t - 1800) - c127*kd123 + c105*c149*k123</t>
+    <t>c105*c149*k123 - c127*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c127*kd123 + c105*c146*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc128/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c147*heaviside(t - 1800) - c128*heaviside(t - 1800) - c128*kd123 + c105*c150*k123</t>
+    <t>c105*c150*k123 - c128*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c128*kd123 + c105*c147*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc284/dt</t>
   </si>
   <si>
-    <t>c129*heaviside(t - 1800) - c284*kd103 - 0.000000018704*c105*c284*heaviside(t - 1800) + c87*c141*k103</t>
+    <t>c129*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c284*kd103 + c87*c141*k103 - c105*c284*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc129/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c284*heaviside(t - 1800) - c129*heaviside(t - 1800) - c129*kd123 + c105*c289*k123</t>
+    <t>c105*c289*k123 - c129*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c129*kd123 + c105*c284*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc427/dt</t>
   </si>
   <si>
-    <t>c464*kd108 - c427*kd105 + c130*heaviside(t - 1800) - 0.000000018704*c105*c427*heaviside(t - 1800) + c225*c426*k105 - c427*c463*k108</t>
+    <t>c464*kd108 - c427*kd105 + c130*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c225*c426*k105 - c427*c463*k108 - c105*c427*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc130/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c427*heaviside(t - 1800) - c130*heaviside(t - 1800) - c130*kd123 + c105*c445*k123</t>
+    <t>c105*c445*k123 - c130*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c130*kd123 + c105*c427*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc428/dt</t>
   </si>
   <si>
-    <t>c465*kd108 - c428*kd105 + c131*heaviside(t - 1800) - 0.000000018704*c105*c428*heaviside(t - 1800) + c226*c426*k105 - c428*c463*k108</t>
+    <t>c465*kd108 - c428*kd105 + c131*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c226*c426*k105 - c428*c463*k108 - c105*c428*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc131/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c428*heaviside(t - 1800) - c131*heaviside(t - 1800) - c131*kd123 + c105*c446*k123</t>
+    <t>c105*c446*k123 - c131*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c131*kd123 + c105*c428*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc429/dt</t>
   </si>
   <si>
-    <t>c466*kd108 - c429*kd105 + c132*heaviside(t - 1800) - 0.000000018704*c105*c429*heaviside(t - 1800) + c227*c426*k105 - c429*c463*k108</t>
+    <t>c466*kd108 - c429*kd105 + c132*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c227*c426*k105 - c429*c463*k108 - c105*c429*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc132/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c429*heaviside(t - 1800) - c132*heaviside(t - 1800) - c132*kd123 + c105*c447*k123</t>
+    <t>c105*c447*k123 - c132*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c132*kd123 + c105*c429*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc436/dt</t>
   </si>
   <si>
-    <t>c473*kd108 - c436*kd105 + c133*heaviside(t - 1800) - 0.000000018704*c105*c436*heaviside(t - 1800) + c312*c426*k105 - c436*c463*k108</t>
+    <t>c473*kd108 - c436*kd105 + c133*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c312*c426*k105 - c436*c463*k108 - c105*c436*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc133/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c436*heaviside(t - 1800) - c133*heaviside(t - 1800) - c133*kd123 + c105*c454*k123</t>
+    <t>c105*c454*k123 - c133*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c133*kd123 + c105*c436*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc439/dt</t>
   </si>
   <si>
-    <t>c476*kd108 - c439*kd105 + c134*heaviside(t - 1800) - 0.000000018704*c105*c439*heaviside(t - 1800) + c381*c426*k105 - c439*c463*k108</t>
+    <t>c476*kd108 - c439*kd105 + c134*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c381*c426*k105 - c439*c463*k108 - c105*c439*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc134/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c439*heaviside(t - 1800) - c134*heaviside(t - 1800) - c134*kd123 + c105*c457*k123</t>
+    <t>c105*c457*k123 - c134*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c134*kd123 + c105*c439*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc442/dt</t>
   </si>
   <si>
-    <t>c479*kd108 - c442*kd105 + c135*heaviside(t - 1800) - 0.000000018704*c105*c442*heaviside(t - 1800) + c384*c426*k105 - c442*c463*k108</t>
+    <t>c479*kd108 - c442*kd105 + c135*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c384*c426*k105 - c442*c463*k108 - c105*c442*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc135/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c442*heaviside(t - 1800) - c135*heaviside(t - 1800) - c135*kd123 + c105*c460*k123</t>
+    <t>c105*c460*k123 - c135*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c135*kd123 + c105*c442*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc483/dt</t>
   </si>
   <si>
-    <t>c489*kd108 - c483*kd105 + c136*heaviside(t - 1800) - 0.000000018704*c105*c483*heaviside(t - 1800) + c23*c426*k105 - c463*c483*k108</t>
+    <t>c489*kd108 - c483*kd105 + c136*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c23*c426*k105 - c463*c483*k108 - c105*c483*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc136/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c483*heaviside(t - 1800) - c136*heaviside(t - 1800) - c136*kd123 + c105*c486*k123</t>
+    <t>c105*c486*k123 - c136*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c136*kd123 + c105*c483*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc516/dt</t>
   </si>
   <si>
-    <t>c137*heaviside(t - 1800) - c516*kd120 - 0.000000018704*c105*c516*heaviside(t - 1800) + c2*c142*k120b</t>
+    <t>c137*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c516*kd120 + c2*c142*k120b - c105*c516*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc137/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c516*heaviside(t - 1800) - c137*heaviside(t - 1800) - c137*kd123 + c105*c149*k123</t>
+    <t>c105*c149*k123 - c137*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c137*kd123 + c105*c516*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc517/dt</t>
   </si>
   <si>
-    <t>c138*heaviside(t - 1800) - c517*kd120 - 0.000000018704*c105*c517*heaviside(t - 1800) + c2*c144*k120b</t>
+    <t>c138*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c517*kd120 + c2*c144*k120b - c105*c517*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc138/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c517*heaviside(t - 1800) - c138*heaviside(t - 1800) - c138*kd123 + c105*c150*k123</t>
+    <t>c105*c150*k123 - c138*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c138*kd123 + c105*c517*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc345/dt</t>
   </si>
   <si>
-    <t>c139*heaviside(t - 1800) - c345*kd120 - 0.000000018704*c105*c345*heaviside(t - 1800) + c141*c144*k120</t>
+    <t>c139*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c345*kd120 + c141*c144*k120 - c105*c345*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc139/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c345*heaviside(t - 1800) - c139*heaviside(t - 1800) - c139*kd123 + c105*c336*k123</t>
+    <t>c105*c336*k123 - c139*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c139*kd123 + c105*c345*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc355/dt</t>
   </si>
   <si>
-    <t>c168*heaviside(t - 1800) - c355*kd120 - 0.000000018704*c105*c355*heaviside(t - 1800) + c141*c142*k120</t>
+    <t>c168*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c355*kd120 + c141*c142*k120 - c105*c355*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc168/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c355*heaviside(t - 1800) - c168*heaviside(t - 1800) - c168*kd123 + c105*c335*k123</t>
+    <t>c105*c335*k123 - c168*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c168*kd123 + c105*c355*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc421/dt</t>
   </si>
   <si>
-    <t>c86*kd60b - c421*k62b - c421*kd120 + c169*heaviside(t - 1800) - 0.000000018704*c105*c421*heaviside(t - 1800) + c155*c157*k120</t>
+    <t>c86*kd60b - c421*k62b - c421*kd120 + c169*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c155*c157*k120 - c105*c421*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc169/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c421*heaviside(t - 1800) - c169*heaviside(t - 1800) - c169*kd123 + c105*c337*k123</t>
+    <t>c105*c337*k123 - c169*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c169*kd123 + c105*c421*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc422/dt</t>
   </si>
   <si>
-    <t>c86*kd60b - c422*k62b - c422*kd120 + c170*heaviside(t - 1800) - 0.000000018704*c105*c422*heaviside(t - 1800) + c155*c158*k120</t>
+    <t>c86*kd60b - c422*k62b - c422*kd120 + c170*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c155*c158*k120 - c105*c422*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc170/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c422*heaviside(t - 1800) - c170*heaviside(t - 1800) - c170*kd123 + c105*c338*k123</t>
+    <t>c105*c338*k123 - c170*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c170*kd123 + c105*c422*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc23/dt</t>
   </si>
   <si>
-    <t>c7*kd4 - c23*k6 + c25*kd17 - c23*kd63 + c99*kd101 + c483*kd105 + 0.00005*c18*heaviside(t - 1800) - c12*c23*k4 + c15*c22*k16 - c23*c24*k17 - c23*c103*k101 - c23*c426*k105</t>
+    <t>c7*kd4 - c23*k6 + c25*kd17 - c23*kd63 + c99*kd101 + c483*kd105 + c18*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c23*k4 + c15*c22*k16 - c23*c24*k17 - c23*c103*k101 - c23*c426*k105</t>
   </si>
   <si>
     <t>dc12/dt</t>
@@ -463,7 +463,7 @@
     <t>dc25/dt</t>
   </si>
   <si>
-    <t>c27*kd18 - c25*kd17 - c25*k6 + c27*kd19 + c29*kd20 + c29*kd21 - c25*kd34 + c88*kd4 + c95*kd64 + 0.00005*c19*heaviside(t - 1800) - c12*c25*k4 + c23*c24*k17 - c25*c26*k18 - c25*c26*k21 - c25*c28*k19 + c15*c30*k34 - c25*c43*k20 - c25*c59*k64</t>
+    <t>c27*kd18 - c25*kd17 - c25*k6 + c27*kd19 + c29*kd20 + c29*kd21 - c25*kd34 + c88*kd4 + c95*kd64 + c19*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c25*k4 + c23*c24*k17 - c25*c26*k18 - c25*c26*k21 - c25*c28*k19 + c15*c30*k34 - c25*c43*k20 - c25*c59*k64</t>
   </si>
   <si>
     <t>dc88/dt</t>
@@ -475,7 +475,7 @@
     <t>dc27/dt</t>
   </si>
   <si>
-    <t>c89*kd4 - c27*kd18 - c27*kd19 - c27*k6 + 0.00005*c20*heaviside(t - 1800) - c12*c27*k4 + c25*c26*k18 + c25*c28*k19</t>
+    <t>c89*kd4 - c27*kd18 - c27*kd19 - c27*k6 + c20*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c27*k4 + c25*c26*k18 + c25*c28*k19</t>
   </si>
   <si>
     <t>dc89/dt</t>
@@ -487,7 +487,7 @@
     <t>dc29/dt</t>
   </si>
   <si>
-    <t>c90*kd4 - c29*kd20 - c29*kd21 - c29*k6 + 0.00005*c21*heaviside(t - 1800) - c12*c29*k4 + c25*c26*k21 + c25*c43*k20</t>
+    <t>c90*kd4 - c29*kd20 - c29*kd21 - c29*k6 + c21*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c29*k4 + c25*c26*k21 + c25*c43*k20</t>
   </si>
   <si>
     <t>dc90/dt</t>
@@ -499,7 +499,7 @@
     <t>dc34/dt</t>
   </si>
   <si>
-    <t>c35*kd25 - c34*kd24 - c34*k6 - c34*kd37 + c91*kd4 + c419*kd101 + 0.00005*c65*heaviside(t - 1800) - c12*c34*k4 + c22*c33*k16 - c24*c34*k25 + c15*c39*k37 - c34*c103*k101</t>
+    <t>c35*kd25 - c34*kd24 - c34*k6 - c34*kd37 + c91*kd4 + c419*kd101 + c65*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c34*k4 + c22*c33*k16 - c24*c34*k25 + c15*c39*k37 - c34*c103*k101</t>
   </si>
   <si>
     <t>dc91/dt</t>
@@ -511,7 +511,7 @@
     <t>dc35/dt</t>
   </si>
   <si>
-    <t>c36*kd18 - c35*k6 + c36*kd19 + c37*kd20 + c37*kd21 - c35*kd25 - c35*kd32 - c35*kd41 + c92*kd4 + c97*kd64 + 0.00005*c66*heaviside(t - 1800) - c12*c35*k4 - c26*c35*k18 - c26*c35*k21 - c28*c35*k19 + c24*c34*k25 + c15*c38*k32 - c35*c43*k20 + c30*c33*k41 - c35*c59*k64</t>
+    <t>c36*kd18 - c35*k6 + c36*kd19 + c37*kd20 + c37*kd21 - c35*kd25 - c35*kd32 - c35*kd41 + c92*kd4 + c97*kd64 + c66*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c35*k4 - c26*c35*k18 - c26*c35*k21 - c28*c35*k19 + c24*c34*k25 + c15*c38*k32 - c35*c43*k20 + c30*c33*k41 - c35*c59*k64</t>
   </si>
   <si>
     <t>dc92/dt</t>
@@ -523,7 +523,7 @@
     <t>dc36/dt</t>
   </si>
   <si>
-    <t>c93*kd4 - c36*kd18 - c36*kd19 - c36*k6 + 0.00005*c67*heaviside(t - 1800) - c12*c36*k4 + c26*c35*k18 + c28*c35*k19</t>
+    <t>c93*kd4 - c36*kd18 - c36*kd19 - c36*k6 + c67*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c36*k4 + c26*c35*k18 + c28*c35*k19</t>
   </si>
   <si>
     <t>dc93/dt</t>
@@ -535,7 +535,7 @@
     <t>dc37/dt</t>
   </si>
   <si>
-    <t>c94*kd4 - c37*kd20 - c37*kd21 - c37*k6 + 0.00005*c68*heaviside(t - 1800) - c12*c37*k4 + c26*c35*k21 + c35*c43*k20</t>
+    <t>c94*kd4 - c37*kd20 - c37*kd21 - c37*k6 + c68*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c12*c37*k4 + c26*c35*k21 + c35*c43*k20</t>
   </si>
   <si>
     <t>dc94/dt</t>
@@ -1417,103 +1417,103 @@
     <t>dc68/dt</t>
   </si>
   <si>
-    <t>c37*k6 - c68*k60 - c68*kd20 - c68*kd21 + c94*kd5 + c86*kd60 - 0.00005*c68*heaviside(t - 1800) - c9*c68*k5 + c26*c66*k21 + c66*c71*k20</t>
+    <t>c37*k6 - c68*k60 - c68*kd20 - c68*kd21 + c94*kd5 + c86*kd60 - c68*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c68*k5 + c26*c66*k21 + c66*c71*k20</t>
   </si>
   <si>
     <t>dc67/dt</t>
   </si>
   <si>
-    <t>c36*k6 - c67*k60 - c67*kd18 - c67*kd19 + c93*kd5 + c86*kd60 - 0.00005*c67*heaviside(t - 1800) - c9*c67*k5 + c26*c66*k18 + c66*c69*k19</t>
+    <t>c36*k6 - c67*k60 - c67*kd18 - c67*kd19 + c93*kd5 + c86*kd60 - c67*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c67*k5 + c26*c66*k18 + c66*c69*k19</t>
   </si>
   <si>
     <t>dc66/dt</t>
   </si>
   <si>
-    <t>c35*k6 - c66*k60 + c67*kd18 + c67*kd19 + c68*kd20 + c68*kd21 - c66*kd25 + c92*kd5 - c66*kd32 - c66*kd41 + c86*kd60 + c98*kd64 - 0.00005*c66*heaviside(t - 1800) - c9*c66*k5 + c17*c38*k32 - c26*c66*k18 - c26*c66*k21 + c24*c65*k25 + c30*c64*k41 - c66*c69*k19 - c66*c71*k20 - c66*c83*k64</t>
+    <t>c35*k6 - c66*k60 + c67*kd18 + c67*kd19 + c68*kd20 + c68*kd21 - c66*kd25 + c92*kd5 - c66*kd32 - c66*kd41 + c86*kd60 + c98*kd64 - c66*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c66*k5 + c17*c38*k32 - c26*c66*k18 - c26*c66*k21 + c24*c65*k25 + c30*c64*k41 - c66*c69*k19 - c66*c71*k20 - c66*c83*k64</t>
   </si>
   <si>
     <t>dc65/dt</t>
   </si>
   <si>
-    <t>c34*k6 - c65*k60 - c65*kd24 + c66*kd25 + c91*kd5 - c65*kd37 + c86*kd60 + c420*kd101 - 0.00005*c65*heaviside(t - 1800) - c9*c65*k5 + c17*c39*k37 + c22*c64*k16 - c24*c65*k25 - c65*c103*k101</t>
+    <t>c34*k6 - c65*k60 - c65*kd24 + c66*kd25 + c91*kd5 - c65*kd37 + c86*kd60 + c420*kd101 - c65*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c65*k5 + c17*c39*k37 + c22*c64*k16 - c24*c65*k25 - c65*c103*k101</t>
   </si>
   <si>
     <t>dc21/dt</t>
   </si>
   <si>
-    <t>c29*k6 - c21*k60 - c21*kd20 - c21*kd21 + c90*kd5 + c86*kd60 - 0.00005*c21*heaviside(t - 1800) - c9*c21*k5 + c19*c26*k21 + c19*c71*k20</t>
+    <t>c29*k6 - c21*k60 - c21*kd20 - c21*kd21 + c90*kd5 + c86*kd60 - c21*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c21*k5 + c19*c26*k21 + c19*c71*k20</t>
   </si>
   <si>
     <t>dc20/dt</t>
   </si>
   <si>
-    <t>c27*k6 - c20*k60 - c20*kd18 - c20*kd19 + c89*kd5 + c86*kd60 - 0.00005*c20*heaviside(t - 1800) - c9*c20*k5 + c19*c26*k18 + c19*c69*k19</t>
+    <t>c27*k6 - c20*k60 - c20*kd18 - c20*kd19 + c89*kd5 + c86*kd60 - c20*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c20*k5 + c19*c26*k18 + c19*c69*k19</t>
   </si>
   <si>
     <t>dc18/dt</t>
   </si>
   <si>
-    <t>c23*k6 - c18*k60 + c7*kd5 + c19*kd17 - c18*kd63 + c86*kd60 + c100*kd101 - 0.00005*c18*heaviside(t - 1800) - c9*c18*k5 + c17*c22*k16 - c18*c24*k17 - c18*c103*k101</t>
+    <t>c23*k6 - c18*k60 + c7*kd5 + c19*kd17 - c18*kd63 + c86*kd60 + c100*kd101 - c18*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c18*k5 + c17*c22*k16 - c18*c24*k17 - c18*c103*k101</t>
   </si>
   <si>
     <t>dc19/dt</t>
   </si>
   <si>
-    <t>c25*k6 - c19*k60 - c19*kd17 + c20*kd18 + c20*kd19 + c21*kd20 + c21*kd21 - c19*kd34 + c88*kd5 + c86*kd60 + c96*kd64 - 0.00005*c19*heaviside(t - 1800) - c9*c19*k5 + c18*c24*k17 - c19*c26*k18 - c19*c26*k21 + c17*c30*k34 - c19*c69*k19 - c19*c71*k20 - c19*c83*k64</t>
+    <t>c25*k6 - c19*k60 - c19*kd17 + c20*kd18 + c20*kd19 + c21*kd20 + c21*kd21 - c19*kd34 + c88*kd5 + c86*kd60 + c96*kd64 - c19*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c9*c19*k5 + c18*c24*k17 - c19*c26*k18 - c19*c26*k21 + c17*c30*k34 - c19*c69*k19 - c19*c71*k20 - c19*c83*k64</t>
   </si>
   <si>
     <t>dc6/dt</t>
   </si>
   <si>
-    <t>c2*k6 - c6*k60 + c10*kd10 + c86*kd60 + c518*kd120 + c519*kd120 - 0.00005*c6*heaviside(t - 1800) - c6*c16*k10b - c6*c157*k120b - c6*c158*k120b</t>
+    <t>c2*k6 - c6*k60 + c10*kd10 + c86*kd60 + c518*kd120 + c519*kd120 - c6*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c6*c16*k10b - c6*c157*k120b - c6*c158*k120b</t>
   </si>
   <si>
     <t>dc5/dt</t>
   </si>
   <si>
-    <t>c15*kd8 - c5*k6 - c5*kd102 + c116*kd123 + c115*kd123h + c121*kd123h + c555*kd123 + c557*kd123 + c556*kd123h + c558*kd123h + c330^2*k102 + 0.00005*c8*heaviside(t - 1800) - c5*c14*k8 - 3*c5*c105*k123 - 4*c5*c105*k123h</t>
+    <t>c15*kd8 - c5*k6 - c5*kd102 + c116*kd123 + c115*kd123h + c121*kd123h + c555*kd123 + c557*kd123 + c556*kd123h + c558*kd123h + c330^2*k102 + c8*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c5*c14*k8 - 3*c5*c105*k123 - 4*c5*c105*k123h</t>
   </si>
   <si>
     <t>dc8/dt</t>
   </si>
   <si>
-    <t>c5*k6 + c17*kd8 + c126*kd123 + c415*kd94 - 0.00005*c8*heaviside(t - 1800) - c8*c14*k8 - c8*c105*k123 - c8*c280*k94</t>
+    <t>c5*k6 + c17*kd8 + c126*kd123 + c415*kd94 - c8*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c8*c14*k8 - c8*c105*k123 - c8*c280*k94</t>
   </si>
   <si>
     <t>dc15/dt</t>
   </si>
   <si>
-    <t>c32*kd22 - c15*kd8 - c15*k6 + c25*kd34 + c35*kd32 + c33*kd37 + c34*kd37 + c23*kd63 + 0.00005*c17*heaviside(t - 1800) + c5*c14*k8 - c15*c22*k16 - c15*c31*k22 - c15*c30*k34 - c15*c38*k32 - c15*c39*k37 - c15*c40*k37</t>
+    <t>c32*kd22 - c15*kd8 - c15*k6 + c25*kd34 + c35*kd32 + c33*kd37 + c34*kd37 + c23*kd63 + c17*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c5*c14*k8 - c15*c22*k16 - c15*c31*k22 - c15*c30*k34 - c15*c38*k32 - c15*c39*k37 - c15*c40*k37</t>
   </si>
   <si>
     <t>dc17/dt</t>
   </si>
   <si>
-    <t>c15*k6 - c17*k60 - c17*kd8 + c19*kd34 + c18*kd63 + c63*kd22 + c66*kd32 + c64*kd37 + c65*kd37 + c86*kd60 - 0.00005*c17*heaviside(t - 1800) + c8*c14*k8 - c17*c22*k16 - c17*c31*k22 - c17*c30*k34 - c17*c38*k32 - c17*c39*k37 - c17*c40*k37</t>
+    <t>c15*k6 - c17*k60 - c17*kd8 + c19*kd34 + c18*kd63 + c63*kd22 + c66*kd32 + c64*kd37 + c65*kd37 + c86*kd60 - c17*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c8*c14*k8 - c17*c22*k16 - c17*c31*k22 - c17*c30*k34 - c17*c38*k32 - c17*c39*k37 - c17*c40*k37</t>
   </si>
   <si>
     <t>dc32/dt</t>
   </si>
   <si>
-    <t>c33*kd23 - c32*k23 - c32*kd22 - c32*k6 + 0.00005*c63*heaviside(t - 1800) + c15*c31*k22</t>
+    <t>c33*kd23 - c32*k23 - c32*kd22 - c32*k6 + c63*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c15*c31*k22</t>
   </si>
   <si>
     <t>dc63/dt</t>
   </si>
   <si>
-    <t>c32*k6 - c63*k23 - c63*k60 - c63*kd22 + c64*kd23 + c86*kd60 - 0.00005*c63*heaviside(t - 1800) + c17*c31*k22</t>
+    <t>c32*k6 - c63*k23 - c63*k60 - c63*kd22 + c64*kd23 + c86*kd60 - c63*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c17*c31*k22</t>
   </si>
   <si>
     <t>dc33/dt</t>
   </si>
   <si>
-    <t>c32*k23 - c33*k6 - c33*kd23 + c34*kd24 - c33*kd37 + c35*kd41 + 0.00005*c64*heaviside(t - 1800) - c22*c33*k16 + c15*c40*k37 - c30*c33*k41</t>
+    <t>c32*k23 - c33*k6 - c33*kd23 + c34*kd24 - c33*kd37 + c35*kd41 + c64*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c22*c33*k16 + c15*c40*k37 - c30*c33*k41</t>
   </si>
   <si>
     <t>dc64/dt</t>
   </si>
   <si>
-    <t>c33*k6 + c63*k23 - c64*k60 - c64*kd23 + c65*kd24 - c64*kd37 + c66*kd41 + c86*kd60 - 0.00005*c64*heaviside(t - 1800) + c17*c40*k37 - c22*c64*k16 - c30*c64*k41</t>
+    <t>c33*k6 + c63*k23 - c64*k60 - c64*kd23 + c65*kd24 - c64*kd37 + c66*kd41 + c86*kd60 - c64*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c17*c40*k37 - c22*c64*k16 - c30*c64*k41</t>
   </si>
   <si>
     <t>dc347/dt</t>
@@ -1531,13 +1531,13 @@
     <t>dc348/dt</t>
   </si>
   <si>
-    <t>c354*kd23 - c348*k23 - c348*kd22 - c348*k6 + 0.00005*c350*heaviside(t - 1800) + c31*c344*k22</t>
+    <t>c354*kd23 - c348*k23 - c348*kd22 - c348*k6 + c350*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c31*c344*k22</t>
   </si>
   <si>
     <t>dc350/dt</t>
   </si>
   <si>
-    <t>c348*k6 - c350*k23 - c350*k60c + c86*kd60 - c350*kd22 + c356*kd23 - 0.00005*c350*heaviside(t - 1800) + c31*c346*k22</t>
+    <t>c348*k6 - c350*k23 - c350*k60c + c86*kd60 - c350*kd22 + c356*kd23 - c350*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) + c31*c346*k22</t>
   </si>
   <si>
     <t>dc351/dt</t>
@@ -2083,7 +2083,7 @@
     <t>dc60/dt</t>
   </si>
   <si>
-    <t>c61*kd56 + c61*kd57 + c62*kd57 + c62*kd58 + c84*kd56 + c84*kd57 + c85*kd57 + c85*kd58 + c520*kd116 - 0.00005*c60*heaviside(t - 1800) - 2*c55*c60*k57 - c57*c60*k57 - c57*c60*k58 - c59*c60*k56 - c60*c81*k57 - c60*c81*k58 - c60*c83*k56</t>
+    <t>c61*kd56 + c61*kd57 + c62*kd57 + c62*kd58 + c84*kd56 + c84*kd57 + c85*kd57 + c85*kd58 + c520*kd116 - c60*(0.0150356*heaviside(t - 2660) + sin(50.0*pi*(t - 2659.99))*(0.0150356*heaviside(1.0*t - 2659.99) - 0.0150356*heaviside(t - 2660))) - 2*c55*c60*k57 - c57*c60*k57 - c57*c60*k58 - c59*c60*k56 - c60*c81*k57 - c60*c81*k58 - c60*c83*k56</t>
   </si>
   <si>
     <t>dc61/dt</t>
@@ -2509,7 +2509,7 @@
     <t>dc531/dt</t>
   </si>
   <si>
-    <t>c286*kd97 + c2*heaviside(t - 1800) - 0.000000018704*c105*c531*heaviside(t - 1800)</t>
+    <t>c286*kd97 + c2*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c105*c531*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc330/dt</t>
@@ -2833,7 +2833,7 @@
     <t>dc520/dt</t>
   </si>
   <si>
-    <t>0.00005*c60*heaviside(t - 1800) - c520*kd116</t>
+    <t>c60*(0.0150356*heaviside(t - 2660) + sin(50.0*pi*(t - 2659.99))*(0.0150356*heaviside(1.0*t - 2659.99) - 0.0150356*heaviside(t - 2660))) - c520*kd116</t>
   </si>
   <si>
     <t>dc521/dt</t>
@@ -2887,13 +2887,13 @@
     <t>dc142/dt</t>
   </si>
   <si>
-    <t>c355*kd120 - c142*kd119 + c516*kd120 + 0.001*c140*heaviside(t - 1800) - c2*c142*k120b - c141*c142*k120</t>
+    <t>c355*kd120 - c142*kd119 + c516*kd120 + 0.0000000001*c140*(10000000*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(10000000*heaviside(t - 1800) - 10000000*heaviside(1.0*t - 1799.99))) - c2*c142*k120b - c141*c142*k120</t>
   </si>
   <si>
     <t>dc144/dt</t>
   </si>
   <si>
-    <t>c345*kd120 - c144*kd119 + c517*kd120 + 0.001*c143*heaviside(t - 1800) - c2*c144*k120b - c141*c144*k120</t>
+    <t>c345*kd120 - c144*kd119 + c517*kd120 + 0.0000000001*c143*(10000000*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(10000000*heaviside(t - 1800) - 10000000*heaviside(1.0*t - 1799.99))) - c2*c144*k120b - c141*c144*k120</t>
   </si>
   <si>
     <t>dc158/dt</t>
@@ -2905,25 +2905,25 @@
     <t>dc532/dt</t>
   </si>
   <si>
-    <t>c525*kd97c + c524*heaviside(t - 1800) - 0.000000018704*c105*c532*heaviside(t - 1800)</t>
+    <t>c525*kd97c + c524*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c105*c532*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc525/dt</t>
   </si>
   <si>
-    <t>0.0033*c526*heaviside(t - 1800) - c525*kd97c</t>
+    <t>c526*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c525*kd97c</t>
   </si>
   <si>
     <t>dc526/dt</t>
   </si>
   <si>
-    <t>c527*kd2 + 2*c528*kd2 + c553*kd2 + c554*kd2 - 2*c526^2*k2 - 0.0033*c526*heaviside(t - 1800) - c3*c526*k2 - c499*c526*k2 - c526*c529*k2</t>
+    <t>c527*kd2 + 2*c528*kd2 + c553*kd2 + c554*kd2 - 2*c526^2*k2 - c526*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c3*c526*k2 - c499*c526*k2 - c526*c529*k2</t>
   </si>
   <si>
     <t>dc527/dt</t>
   </si>
   <si>
-    <t>c121*heaviside(t - 1800) - c527*kd2 - 0.000000018704*c105*c527*heaviside(t - 1800) + c3*c526*k2</t>
+    <t>c121*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c527*kd2 + c3*c526*k2 - c105*c527*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc528/dt</t>
@@ -2935,55 +2935,55 @@
     <t>dc524/dt</t>
   </si>
   <si>
-    <t>0.0033*c529*heaviside(t - 1800) - c524*heaviside(t - 1800) - c524*k6 + 0.00005*c530*heaviside(t - 1800) + 0.000000018704*c105*c532*heaviside(t - 1800)</t>
+    <t>c530*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c524*k6 - c524*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) + c529*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) + c105*c532*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc529/dt</t>
   </si>
   <si>
-    <t>c550*kd2 + c551*kd2 + 2*c552*kd2 + c553*kd2 - 2*c529^2*k2 - 0.0033*c529*heaviside(t - 1800) - c3*c529*k2 - c499*c529*k2 - c526*c529*k2</t>
+    <t>c550*kd2 + c551*kd2 + 2*c552*kd2 + c553*kd2 - 2*c529^2*k2 - c529*(0.0033*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.0033*heaviside(t - 1800) - 0.0033*heaviside(1.0*t - 1799.99))) - c3*c529*k2 - c499*c529*k2 - c526*c529*k2</t>
   </si>
   <si>
     <t>dc530/dt</t>
   </si>
   <si>
-    <t>c524*k6 + c10*kd10 - 0.00005*c530*heaviside(t - 1800) - c16*c530*k10b</t>
+    <t>c524*k6 + c10*kd10 - c530*(0.00005*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.00005*heaviside(t - 1800) - 0.00005*heaviside(1.0*t - 1799.99))) - c16*c530*k10b</t>
   </si>
   <si>
     <t>dc115/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c500*heaviside(t - 1800) - c115*heaviside(t - 1800) - c115*kd123h + c5*c105*k123h</t>
+    <t>c5*c105*k123h - c115*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c115*kd123h + c105*c500*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc121/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c527*heaviside(t - 1800) - c121*heaviside(t - 1800) - c121*kd123h + c5*c105*k123h</t>
+    <t>c5*c105*k123h - c121*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c121*kd123h + c105*c527*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc550/dt</t>
   </si>
   <si>
-    <t>c555*heaviside(t - 1800) - c550*kd2 - 0.000000018704*c105*c550*heaviside(t - 1800) + c3*c529*k2</t>
+    <t>c555*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c550*kd2 + c3*c529*k2 - c105*c550*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc551/dt</t>
   </si>
   <si>
-    <t>c556*heaviside(t - 1800) - c551*kd2 - 0.000000018704*c105*c551*heaviside(t - 1800) + c499*c529*k2</t>
+    <t>c556*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c551*kd2 + c499*c529*k2 - c105*c551*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc552/dt</t>
   </si>
   <si>
-    <t>c529^2*k2 - c552*kd2 + c557*heaviside(t - 1800) - 0.000000018704*c105*c552*heaviside(t - 1800)</t>
+    <t>c529^2*k2 - c552*kd2 + c557*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c105*c552*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc553/dt</t>
   </si>
   <si>
-    <t>c558*heaviside(t - 1800) - c553*kd2 - 0.000000018704*c105*c553*heaviside(t - 1800) + c526*c529*k2</t>
+    <t>c558*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c553*kd2 + c526*c529*k2 - c105*c553*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc554/dt</t>
@@ -2995,25 +2995,25 @@
     <t>dc555/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c550*heaviside(t - 1800) - c555*heaviside(t - 1800) - c555*kd123 + c5*c105*k123</t>
+    <t>c5*c105*k123 - c555*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c555*kd123 + c105*c550*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc556/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c551*heaviside(t - 1800) - c556*heaviside(t - 1800) - c556*kd123h + c5*c105*k123h</t>
+    <t>c5*c105*k123h - c556*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c556*kd123h + c105*c551*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc557/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c552*heaviside(t - 1800) - c557*heaviside(t - 1800) - c557*kd123 + c5*c105*k123</t>
+    <t>c5*c105*k123 - c557*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c557*kd123 + c105*c552*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>dc558/dt</t>
   </si>
   <si>
-    <t>0.000000018704*c105*c553*heaviside(t - 1800) - c558*heaviside(t - 1800) - c558*kd123h + c5*c105*k123h</t>
+    <t>c5*c105*k123h - c558*(heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(heaviside(t - 1800) - heaviside(1.0*t - 1799.99))) - c558*kd123h + c105*c553*(0.000000018704*heaviside(t - 1800) - sin(50.0*pi*(t - 1799.99))*(0.000000018704*heaviside(t - 1800) - 0.000000018704*heaviside(1.0*t - 1799.99)))</t>
   </si>
   <si>
     <t>Observables</t>
